--- a/data/Rivers/LHorowhenuaInflowatHokioSandRd_6f60f97d17.xlsx
+++ b/data/Rivers/LHorowhenuaInflowatHokioSandRd_6f60f97d17.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -531,7 +531,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -566,7 +566,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -605,7 +605,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -683,7 +683,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -761,7 +761,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -804,7 +804,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -839,7 +839,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -874,7 +874,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -909,7 +909,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -948,7 +948,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -987,7 +987,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1505,7 +1505,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1855,7 +1855,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2272,7 +2272,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2389,7 +2389,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2428,7 +2428,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2545,7 +2545,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2615,7 +2615,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2654,7 +2654,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2693,7 +2693,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2767,7 +2767,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -3184,7 +3184,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -3301,7 +3301,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -3379,7 +3379,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3457,7 +3457,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3605,7 +3605,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3679,7 +3679,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -3796,7 +3796,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3835,7 +3835,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -3878,7 +3878,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -3948,7 +3948,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -3983,7 +3983,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -4022,7 +4022,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -4061,7 +4061,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -4213,7 +4213,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -4252,7 +4252,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -4291,7 +4291,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -4334,7 +4334,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -4369,7 +4369,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -4404,7 +4404,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -4439,7 +4439,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -4517,7 +4517,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -4556,7 +4556,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -4630,7 +4630,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -4708,7 +4708,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -4747,7 +4747,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -4786,7 +4786,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -4829,7 +4829,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -4934,7 +4934,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -4973,7 +4973,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -5012,7 +5012,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -5051,7 +5051,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
@@ -5125,7 +5125,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -5242,7 +5242,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -5281,7 +5281,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -5324,7 +5324,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -5359,7 +5359,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -5394,7 +5394,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -5429,7 +5429,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -5468,7 +5468,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
@@ -5507,7 +5507,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
@@ -5550,7 +5550,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -5585,7 +5585,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
@@ -5624,7 +5624,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
@@ -5702,7 +5702,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
@@ -5741,7 +5741,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -5780,7 +5780,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -5858,7 +5858,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
@@ -5893,7 +5893,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -5928,7 +5928,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -6006,7 +6006,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
@@ -6045,7 +6045,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
@@ -6080,7 +6080,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
@@ -6119,7 +6119,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -6197,7 +6197,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -6236,7 +6236,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -6275,7 +6275,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
@@ -6318,7 +6318,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
@@ -6353,7 +6353,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
@@ -6388,7 +6388,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
@@ -6423,7 +6423,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -6462,7 +6462,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
@@ -6544,7 +6544,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
@@ -6579,7 +6579,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
@@ -6618,7 +6618,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
@@ -6696,7 +6696,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
@@ -6735,7 +6735,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
@@ -6774,7 +6774,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
@@ -6817,7 +6817,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
@@ -6887,7 +6887,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C171" s="2" t="n">
@@ -6922,7 +6922,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
@@ -6961,7 +6961,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C173" s="2" t="n">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
@@ -7043,7 +7043,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
@@ -7078,7 +7078,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C176" s="2" t="n">
@@ -7117,7 +7117,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C177" s="2" t="n">
@@ -7195,7 +7195,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
@@ -7234,7 +7234,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C181" s="2" t="n">
@@ -7316,7 +7316,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C182" s="2" t="n">
@@ -7351,7 +7351,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C183" s="2" t="n">
@@ -7386,7 +7386,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C184" s="2" t="n">
@@ -7421,7 +7421,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C185" s="2" t="n">
@@ -7460,7 +7460,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C186" s="2" t="n">
@@ -7499,7 +7499,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C187" s="2" t="n">
@@ -7542,7 +7542,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C188" s="2" t="n">
@@ -7577,7 +7577,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C189" s="2" t="n">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C190" s="2" t="n">
@@ -7694,7 +7694,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C192" s="2" t="n">
@@ -7733,7 +7733,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C193" s="2" t="n">
@@ -7772,7 +7772,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C194" s="2" t="n">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C195" s="2" t="n">
@@ -7850,7 +7850,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C196" s="2" t="n">
@@ -7885,7 +7885,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C197" s="2" t="n">
@@ -7920,7 +7920,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C198" s="2" t="n">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C199" s="2" t="n">
@@ -7998,7 +7998,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C200" s="2" t="n">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C201" s="2" t="n">
@@ -8076,7 +8076,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C202" s="2" t="n">
@@ -8115,7 +8115,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C203" s="2" t="n">
@@ -8193,7 +8193,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C205" s="2" t="n">
@@ -8232,7 +8232,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C206" s="2" t="n">
@@ -8271,7 +8271,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C207" s="2" t="n">
@@ -8314,7 +8314,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C208" s="2" t="n">
@@ -8349,7 +8349,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C209" s="2" t="n">
@@ -8384,7 +8384,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C210" s="2" t="n">
@@ -8419,7 +8419,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C211" s="2" t="n">
@@ -8458,7 +8458,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C212" s="2" t="n">
@@ -8497,7 +8497,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C213" s="2" t="n">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C214" s="2" t="n">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C215" s="2" t="n">
@@ -8649,7 +8649,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C217" s="2" t="n">
@@ -8688,7 +8688,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C218" s="2" t="n">
@@ -8727,7 +8727,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C219" s="2" t="n">
@@ -8770,7 +8770,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C220" s="2" t="n">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C221" s="2" t="n">
@@ -8840,7 +8840,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C222" s="2" t="n">
@@ -8875,7 +8875,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C223" s="2" t="n">
@@ -8914,7 +8914,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C224" s="2" t="n">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C225" s="2" t="n">
@@ -8992,7 +8992,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C226" s="2" t="n">
@@ -9027,7 +9027,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C227" s="2" t="n">
@@ -9066,7 +9066,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C228" s="2" t="n">
@@ -9144,7 +9144,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C230" s="2" t="n">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C231" s="2" t="n">
@@ -9222,7 +9222,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C232" s="2" t="n">
@@ -9265,7 +9265,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C233" s="2" t="n">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C234" s="2" t="n">
@@ -9335,7 +9335,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C235" s="2" t="n">
@@ -9370,7 +9370,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C236" s="2" t="n">
@@ -9409,7 +9409,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C237" s="2" t="n">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C238" s="2" t="n">
@@ -9483,7 +9483,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C239" s="2" t="n">
@@ -9522,7 +9522,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C240" s="2" t="n">
@@ -9600,7 +9600,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C242" s="2" t="n">
@@ -9639,7 +9639,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C243" s="2" t="n">
@@ -9678,7 +9678,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C244" s="2" t="n">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C245" s="2" t="n">
@@ -9756,7 +9756,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C246" s="2" t="n">
@@ -9791,7 +9791,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C247" s="2" t="n">
@@ -9826,7 +9826,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C248" s="2" t="n">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C249" s="2" t="n">
@@ -9904,7 +9904,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C250" s="2" t="n">
@@ -9939,7 +9939,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C251" s="2" t="n">
@@ -9978,7 +9978,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C252" s="2" t="n">
@@ -10056,7 +10056,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C254" s="2" t="n">
@@ -10095,7 +10095,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C255" s="2" t="n">
@@ -10134,7 +10134,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C256" s="2" t="n">
@@ -10177,7 +10177,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C257" s="2" t="n">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C258" s="2" t="n">
@@ -10247,7 +10247,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C259" s="2" t="n">
@@ -10282,7 +10282,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C260" s="2" t="n">
@@ -10321,7 +10321,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C261" s="2" t="n">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C262" s="2" t="n">
@@ -10399,7 +10399,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C263" s="2" t="n">
@@ -10434,7 +10434,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C264" s="2" t="n">
@@ -10473,7 +10473,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C265" s="2" t="n">
@@ -10551,7 +10551,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C267" s="2" t="n">
@@ -10590,7 +10590,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C268" s="2" t="n">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C269" s="2" t="n">
@@ -10672,7 +10672,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C270" s="2" t="n">
@@ -10707,7 +10707,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C271" s="2" t="n">
@@ -10742,7 +10742,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C272" s="2" t="n">
@@ -10777,7 +10777,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C273" s="2" t="n">
@@ -10816,7 +10816,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C274" s="2" t="n">
@@ -10855,7 +10855,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C275" s="2" t="n">
@@ -10890,7 +10890,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C276" s="2" t="n">
@@ -10929,7 +10929,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C277" s="2" t="n">
@@ -11007,7 +11007,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C279" s="2" t="n">
@@ -11046,7 +11046,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C280" s="2" t="n">
@@ -11085,7 +11085,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C281" s="2" t="n">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C282" s="2" t="n">
@@ -11163,7 +11163,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C283" s="2" t="n">
@@ -11198,7 +11198,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C284" s="2" t="n">
@@ -11233,7 +11233,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C285" s="2" t="n">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C286" s="2" t="n">
@@ -11311,7 +11311,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C287" s="2" t="n">
@@ -11354,7 +11354,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C288" s="2" t="n">
@@ -11389,7 +11389,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C289" s="2" t="n">
@@ -11428,7 +11428,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C290" s="2" t="n">
@@ -11506,7 +11506,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C292" s="2" t="n">
@@ -11545,7 +11545,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C293" s="2" t="n">
@@ -11584,7 +11584,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C294" s="2" t="n">
@@ -11627,7 +11627,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C295" s="2" t="n">
@@ -11662,7 +11662,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C296" s="2" t="n">
@@ -11697,7 +11697,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C297" s="2" t="n">
@@ -11732,7 +11732,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C298" s="2" t="n">
@@ -11771,7 +11771,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C299" s="2" t="n">
@@ -11810,7 +11810,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C300" s="2" t="n">
@@ -11853,7 +11853,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C301" s="2" t="n">
@@ -11888,7 +11888,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C302" s="2" t="n">
@@ -11927,7 +11927,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C303" s="2" t="n">
@@ -12005,7 +12005,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C305" s="2" t="n">
@@ -12044,7 +12044,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C306" s="2" t="n">
@@ -12083,7 +12083,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C307" s="2" t="n">
@@ -12126,7 +12126,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C308" s="2" t="n">
@@ -12161,7 +12161,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C309" s="2" t="n">
@@ -12196,7 +12196,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C310" s="2" t="n">
@@ -12231,7 +12231,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C311" s="2" t="n">
@@ -12270,7 +12270,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C312" s="2" t="n">
@@ -12313,7 +12313,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C313" s="2" t="n">
@@ -12356,7 +12356,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C314" s="2" t="n">
@@ -12395,7 +12395,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C315" s="2" t="n">
@@ -12438,7 +12438,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C316" s="2" t="n">
@@ -12516,7 +12516,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C318" s="2" t="n">
@@ -12559,7 +12559,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C319" s="2" t="n">
@@ -12602,7 +12602,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C320" s="2" t="n">
@@ -12645,7 +12645,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C321" s="2" t="n">
@@ -12684,7 +12684,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C322" s="2" t="n">
@@ -12723,7 +12723,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C323" s="2" t="n">
@@ -12762,7 +12762,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C324" s="2" t="n">
@@ -12805,7 +12805,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C325" s="2" t="n">
@@ -12848,7 +12848,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C326" s="2" t="n">
@@ -12891,7 +12891,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C327" s="2" t="n">
@@ -12930,7 +12930,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C328" s="2" t="n">
@@ -12973,7 +12973,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C329" s="2" t="n">
@@ -13051,7 +13051,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C331" s="2" t="n">
@@ -13094,7 +13094,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C332" s="2" t="n">
@@ -13137,7 +13137,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C333" s="2" t="n">
@@ -13180,7 +13180,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C334" s="2" t="n">
@@ -13219,7 +13219,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C335" s="2" t="n">
@@ -13258,7 +13258,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C336" s="2" t="n">
@@ -13297,7 +13297,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C337" s="2" t="n">
@@ -13340,7 +13340,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C338" s="2" t="n">
@@ -13383,7 +13383,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C339" s="2" t="n">
@@ -13422,7 +13422,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C340" s="2" t="n">
@@ -13461,7 +13461,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C341" s="2" t="n">
@@ -13504,7 +13504,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C342" s="2" t="n">
@@ -13582,7 +13582,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C344" s="2" t="n">
@@ -13625,7 +13625,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C345" s="2" t="n">
@@ -13668,7 +13668,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C346" s="2" t="n">
@@ -13711,7 +13711,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C347" s="2" t="n">
@@ -13750,7 +13750,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C348" s="2" t="n">
@@ -13789,7 +13789,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C349" s="2" t="n">
@@ -13828,7 +13828,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C350" s="2" t="n">
@@ -13871,7 +13871,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C351" s="2" t="n">
@@ -13914,7 +13914,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C352" s="2" t="n">
@@ -13953,7 +13953,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C353" s="2" t="n">
@@ -13992,7 +13992,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C354" s="2" t="n">
@@ -14035,7 +14035,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C355" s="2" t="n">
@@ -14113,7 +14113,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C357" s="2" t="n">
@@ -14156,7 +14156,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C358" s="2" t="n">
@@ -14199,7 +14199,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C359" s="2" t="n">
@@ -14242,7 +14242,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C360" s="2" t="n">
@@ -14281,7 +14281,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C361" s="2" t="n">
@@ -14320,7 +14320,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C362" s="2" t="n">
@@ -14359,7 +14359,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C363" s="2" t="n">
@@ -14402,7 +14402,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C364" s="2" t="n">
@@ -14445,7 +14445,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C365" s="2" t="n">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C366" s="2" t="n">
@@ -14527,7 +14527,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C367" s="2" t="n">
@@ -14570,7 +14570,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C368" s="2" t="n">
@@ -14648,7 +14648,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C370" s="2" t="n">
@@ -14691,7 +14691,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C371" s="2" t="n">
@@ -14734,7 +14734,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C372" s="2" t="n">
@@ -14777,7 +14777,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C373" s="2" t="n">
@@ -14816,7 +14816,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C374" s="2" t="n">
@@ -14855,7 +14855,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C375" s="2" t="n">
@@ -14894,7 +14894,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C376" s="2" t="n">
@@ -14937,7 +14937,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C377" s="2" t="n">
@@ -14980,7 +14980,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C378" s="2" t="n">
@@ -15023,7 +15023,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C379" s="2" t="n">
@@ -15062,7 +15062,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C380" s="2" t="n">
@@ -15105,7 +15105,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C381" s="2" t="n">
@@ -15183,7 +15183,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C383" s="2" t="n">
@@ -15226,7 +15226,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C384" s="2" t="n">
@@ -15269,7 +15269,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C385" s="2" t="n">
@@ -15312,7 +15312,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C386" s="2" t="n">
@@ -15351,7 +15351,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C387" s="2" t="n">
@@ -15390,7 +15390,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C388" s="2" t="n">
@@ -15429,7 +15429,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C389" s="2" t="n">
